--- a/Code/Results/Cases/Case_1_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9169924310712673</v>
+        <v>1.036368143126336</v>
       </c>
       <c r="D2">
-        <v>1.027181650187541</v>
+        <v>1.053840555119002</v>
       </c>
       <c r="E2">
-        <v>0.93225202543348</v>
+        <v>1.035015862455223</v>
       </c>
       <c r="F2">
-        <v>1.009715880650849</v>
+        <v>1.059513628349498</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045925999510345</v>
+        <v>1.040660984946148</v>
       </c>
       <c r="J2">
-        <v>0.9419748963898766</v>
+        <v>1.041476841805171</v>
       </c>
       <c r="K2">
-        <v>1.03827485711621</v>
+        <v>1.056585413056771</v>
       </c>
       <c r="L2">
-        <v>0.944743484513632</v>
+        <v>1.037813678117573</v>
       </c>
       <c r="M2">
-        <v>1.021041497191645</v>
+        <v>1.062242926509055</v>
       </c>
       <c r="N2">
-        <v>0.9433126087887811</v>
+        <v>1.042955858379597</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9348996826086292</v>
+        <v>1.039169436755782</v>
       </c>
       <c r="D3">
-        <v>1.033513720763354</v>
+        <v>1.054866274878997</v>
       </c>
       <c r="E3">
-        <v>0.9476851974108075</v>
+        <v>1.037468291508507</v>
       </c>
       <c r="F3">
-        <v>1.01899923290638</v>
+        <v>1.061023536434782</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048391538809645</v>
+        <v>1.040958147004656</v>
       </c>
       <c r="J3">
-        <v>0.9573373646597882</v>
+        <v>1.043912761824634</v>
       </c>
       <c r="K3">
-        <v>1.043735019118855</v>
+        <v>1.057423713373109</v>
       </c>
       <c r="L3">
-        <v>0.9590343101406718</v>
+        <v>1.040071049511232</v>
       </c>
       <c r="M3">
-        <v>1.029394652123637</v>
+        <v>1.063565319930882</v>
       </c>
       <c r="N3">
-        <v>0.9586968935257357</v>
+        <v>1.045395237684893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9456943186422591</v>
+        <v>1.04097124072823</v>
       </c>
       <c r="D4">
-        <v>1.037384128449137</v>
+        <v>1.055525711607635</v>
       </c>
       <c r="E4">
-        <v>0.9570007338883907</v>
+        <v>1.039045235623069</v>
       </c>
       <c r="F4">
-        <v>1.024650857832188</v>
+        <v>1.061994299336337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049877728153529</v>
+        <v>1.041147290137623</v>
       </c>
       <c r="J4">
-        <v>0.9665971324786765</v>
+        <v>1.045478412541795</v>
       </c>
       <c r="K4">
-        <v>1.047051362623424</v>
+        <v>1.057961280360791</v>
       </c>
       <c r="L4">
-        <v>0.9676474054970403</v>
+        <v>1.041521523547177</v>
       </c>
       <c r="M4">
-        <v>1.034460600687822</v>
+        <v>1.06441425697275</v>
       </c>
       <c r="N4">
-        <v>0.9679698112770374</v>
+        <v>1.046963111805654</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9500678380816823</v>
+        <v>1.041726200812968</v>
       </c>
       <c r="D5">
-        <v>1.038962999081191</v>
+        <v>1.055801932227526</v>
       </c>
       <c r="E5">
-        <v>0.9607773091626527</v>
+        <v>1.039705865005467</v>
       </c>
       <c r="F5">
-        <v>1.026951760474035</v>
+        <v>1.062400940888096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050479139027895</v>
+        <v>1.041226060926908</v>
       </c>
       <c r="J5">
-        <v>0.9703481641752094</v>
+        <v>1.046134148983072</v>
       </c>
       <c r="K5">
-        <v>1.048399464520782</v>
+        <v>1.058186123643426</v>
       </c>
       <c r="L5">
-        <v>0.9711361979084963</v>
+        <v>1.042128920803723</v>
       </c>
       <c r="M5">
-        <v>1.036518702758072</v>
+        <v>1.064769564121847</v>
       </c>
       <c r="N5">
-        <v>0.9717261698688281</v>
+        <v>1.047619779467892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9507931496048965</v>
+        <v>1.041852816332024</v>
       </c>
       <c r="D6">
-        <v>1.039225421441093</v>
+        <v>1.055848252326231</v>
       </c>
       <c r="E6">
-        <v>0.9614037435823687</v>
+        <v>1.039816653447023</v>
       </c>
       <c r="F6">
-        <v>1.027333943180051</v>
+        <v>1.062469132584908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05057881649571</v>
+        <v>1.041239243400419</v>
       </c>
       <c r="J6">
-        <v>0.9709701938714497</v>
+        <v>1.046244107394361</v>
       </c>
       <c r="K6">
-        <v>1.048623259644401</v>
+        <v>1.058223808846106</v>
       </c>
       <c r="L6">
-        <v>0.9717147217639538</v>
+        <v>1.04223076748807</v>
       </c>
       <c r="M6">
-        <v>1.036860306649689</v>
+        <v>1.064829129545226</v>
       </c>
       <c r="N6">
-        <v>0.972349082918585</v>
+        <v>1.047729894032737</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9457533753120047</v>
+        <v>1.040981338341472</v>
       </c>
       <c r="D7">
-        <v>1.03740540792932</v>
+        <v>1.055529406414446</v>
       </c>
       <c r="E7">
-        <v>0.9570517213523563</v>
+        <v>1.039054072010716</v>
       </c>
       <c r="F7">
-        <v>1.024681885825741</v>
+        <v>1.061999738627277</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049885852914657</v>
+        <v>1.04114834559482</v>
       </c>
       <c r="J7">
-        <v>0.9666477865379166</v>
+        <v>1.045487184118843</v>
       </c>
       <c r="K7">
-        <v>1.047069550387514</v>
+        <v>1.057964289224761</v>
       </c>
       <c r="L7">
-        <v>0.9676945194997341</v>
+        <v>1.04152964890058</v>
       </c>
       <c r="M7">
-        <v>1.034488371490281</v>
+        <v>1.064419010799338</v>
       </c>
       <c r="N7">
-        <v>0.9680205372708511</v>
+        <v>1.046971895839347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9232255712729076</v>
+        <v>1.037317137677723</v>
       </c>
       <c r="D8">
-        <v>1.029372687776027</v>
+        <v>1.054188096477892</v>
       </c>
       <c r="E8">
-        <v>0.9376208736846655</v>
+        <v>1.035846768527656</v>
       </c>
       <c r="F8">
-        <v>1.012933611716962</v>
+        <v>1.060025220157762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04678371571145</v>
+        <v>1.040762066723179</v>
       </c>
       <c r="J8">
-        <v>0.9473221347733112</v>
+        <v>1.042302295723492</v>
       </c>
       <c r="K8">
-        <v>1.040168959977772</v>
+        <v>1.056869738460644</v>
       </c>
       <c r="L8">
-        <v>0.9497178000254632</v>
+        <v>1.038578714388291</v>
       </c>
       <c r="M8">
-        <v>1.023941193295428</v>
+        <v>1.062691247873938</v>
       </c>
       <c r="N8">
-        <v>0.9486674408640566</v>
+        <v>1.043782484537163</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8758645665029096</v>
+        <v>1.030774184558118</v>
       </c>
       <c r="D9">
-        <v>1.01310416751951</v>
+        <v>1.051791068963442</v>
       </c>
       <c r="E9">
-        <v>0.8969264485261204</v>
+        <v>1.030116115054306</v>
       </c>
       <c r="F9">
-        <v>0.9888856078707312</v>
+        <v>1.056496694810925</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040309766778601</v>
+        <v>1.040057025486971</v>
       </c>
       <c r="J9">
-        <v>0.9067158562309272</v>
+        <v>1.036606412258363</v>
       </c>
       <c r="K9">
-        <v>1.025988157188049</v>
+        <v>1.054902980331625</v>
       </c>
       <c r="L9">
-        <v>0.9119469775966891</v>
+        <v>1.033298007049391</v>
       </c>
       <c r="M9">
-        <v>1.002161619488669</v>
+        <v>1.059593828144082</v>
       </c>
       <c r="N9">
-        <v>0.9080034967485373</v>
+        <v>1.038078512264188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8355207839947558</v>
+        <v>1.026349603748548</v>
       </c>
       <c r="D10">
-        <v>1.00000402953882</v>
+        <v>1.050169484285686</v>
       </c>
       <c r="E10">
-        <v>0.8624835668589504</v>
+        <v>1.026238550741007</v>
       </c>
       <c r="F10">
-        <v>0.9692141802522929</v>
+        <v>1.054109411706165</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034935742057601</v>
+        <v>1.039570163344461</v>
       </c>
       <c r="J10">
-        <v>0.8722151439240706</v>
+        <v>1.032748778464308</v>
       </c>
       <c r="K10">
-        <v>1.014373211231473</v>
+        <v>1.053565209297826</v>
       </c>
       <c r="L10">
-        <v>0.8798757570288545</v>
+        <v>1.02971939224454</v>
       </c>
       <c r="M10">
-        <v>0.9841624557550904</v>
+        <v>1.057491531223697</v>
       </c>
       <c r="N10">
-        <v>0.873453789472918</v>
+        <v>1.034215400187669</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.814287184663021</v>
+        <v>1.024417796027874</v>
       </c>
       <c r="D11">
-        <v>0.9934195228875685</v>
+        <v>1.049461487154069</v>
       </c>
       <c r="E11">
-        <v>0.844459447178026</v>
+        <v>1.024545055710583</v>
       </c>
       <c r="F11">
-        <v>0.9592004955991151</v>
+        <v>1.05306697912015</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032184897974667</v>
+        <v>1.039355250500342</v>
       </c>
       <c r="J11">
-        <v>0.8541116647306445</v>
+        <v>1.031063126596132</v>
       </c>
       <c r="K11">
-        <v>1.008466613582022</v>
+        <v>1.052979393765907</v>
       </c>
       <c r="L11">
-        <v>0.8630615188451681</v>
+        <v>1.028155150669328</v>
       </c>
       <c r="M11">
-        <v>0.974935149051022</v>
+        <v>1.056571944655592</v>
       </c>
       <c r="N11">
-        <v>0.8553246012625392</v>
+        <v>1.032527354500492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8055316015650333</v>
+        <v>1.023697749423475</v>
       </c>
       <c r="D12">
-        <v>0.9907702140758736</v>
+        <v>1.049197606626415</v>
       </c>
       <c r="E12">
-        <v>0.8370511817673737</v>
+        <v>1.023913759969086</v>
       </c>
       <c r="F12">
-        <v>0.9551443587888916</v>
+        <v>1.052678425194593</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031068895703262</v>
+        <v>1.039274797461853</v>
       </c>
       <c r="J12">
-        <v>0.846660552330128</v>
+        <v>1.030434624494366</v>
       </c>
       <c r="K12">
-        <v>1.006076404560293</v>
+        <v>1.052760790588172</v>
       </c>
       <c r="L12">
-        <v>0.8561448576401086</v>
+        <v>1.027571840296985</v>
       </c>
       <c r="M12">
-        <v>0.9711845130402004</v>
+        <v>1.056228939346492</v>
       </c>
       <c r="N12">
-        <v>0.8478629074277594</v>
+        <v>1.031897959853652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8074569576491981</v>
+        <v>1.023852315939266</v>
       </c>
       <c r="D13">
-        <v>0.9913494386214432</v>
+        <v>1.049254250922083</v>
       </c>
       <c r="E13">
-        <v>0.8386789997832437</v>
+        <v>1.024049278462287</v>
       </c>
       <c r="F13">
-        <v>0.9560325588758083</v>
+        <v>1.05276183294591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031313340014056</v>
+        <v>1.039292083336239</v>
       </c>
       <c r="J13">
-        <v>0.8482983089834507</v>
+        <v>1.030569549180882</v>
       </c>
       <c r="K13">
-        <v>1.006599669658415</v>
+        <v>1.052807727541151</v>
       </c>
       <c r="L13">
-        <v>0.8576649312559104</v>
+        <v>1.027697066837338</v>
       </c>
       <c r="M13">
-        <v>0.9720064734688135</v>
+        <v>1.056302580445017</v>
       </c>
       <c r="N13">
-        <v>0.8495029898833835</v>
+        <v>1.032033076148698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8135838894652641</v>
+        <v>1.024358328037092</v>
       </c>
       <c r="D14">
-        <v>0.993205275500076</v>
+        <v>1.049439693170197</v>
       </c>
       <c r="E14">
-        <v>0.8438638383689843</v>
+        <v>1.024492919107017</v>
       </c>
       <c r="F14">
-        <v>0.9588730804191594</v>
+        <v>1.05303488885176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032094843564748</v>
+        <v>1.039348613027272</v>
       </c>
       <c r="J14">
-        <v>0.8535128356705726</v>
+        <v>1.031011223365237</v>
       </c>
       <c r="K14">
-        <v>1.008273616891945</v>
+        <v>1.052961344587767</v>
       </c>
       <c r="L14">
-        <v>0.8625055535598611</v>
+        <v>1.028106981040408</v>
       </c>
       <c r="M14">
-        <v>0.9746326780570036</v>
+        <v>1.056543621111257</v>
       </c>
       <c r="N14">
-        <v>0.8547249217965154</v>
+        <v>1.032475377561056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8172303255307549</v>
+        <v>1.02466976638444</v>
       </c>
       <c r="D15">
-        <v>0.9943188111925841</v>
+        <v>1.049553830499458</v>
       </c>
       <c r="E15">
-        <v>0.8469529392818009</v>
+        <v>1.024765959335432</v>
       </c>
       <c r="F15">
-        <v>0.9605736683140704</v>
+        <v>1.053202947839709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032562519434604</v>
+        <v>1.039383359761478</v>
       </c>
       <c r="J15">
-        <v>0.8566182167064227</v>
+        <v>1.031283036092519</v>
       </c>
       <c r="K15">
-        <v>1.009276139213045</v>
+        <v>1.053055859286793</v>
       </c>
       <c r="L15">
-        <v>0.8653888153961561</v>
+        <v>1.028359238087067</v>
       </c>
       <c r="M15">
-        <v>0.9762031689656188</v>
+        <v>1.056691943651057</v>
       </c>
       <c r="N15">
-        <v>0.8578347128296286</v>
+        <v>1.032747576293588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8368299693663828</v>
+        <v>1.026477467836904</v>
       </c>
       <c r="D16">
-        <v>1.000417233141439</v>
+        <v>1.050216346859611</v>
       </c>
       <c r="E16">
-        <v>0.8635973953490492</v>
+        <v>1.026350630466422</v>
       </c>
       <c r="F16">
-        <v>0.9698395553507907</v>
+        <v>1.054178407558362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03510727805383</v>
+        <v>1.039584339283102</v>
       </c>
       <c r="J16">
-        <v>0.8733327476537402</v>
+        <v>1.032860320964347</v>
       </c>
       <c r="K16">
-        <v>1.014742302792149</v>
+        <v>1.053603948137482</v>
       </c>
       <c r="L16">
-        <v>0.8809141533516422</v>
+        <v>1.029822890100818</v>
       </c>
       <c r="M16">
-        <v>0.9847372367707067</v>
+        <v>1.057552362626884</v>
       </c>
       <c r="N16">
-        <v>0.8745729803280751</v>
+        <v>1.034327101090851</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8479664668891258</v>
+        <v>1.027607059944457</v>
       </c>
       <c r="D17">
-        <v>1.003965185002363</v>
+        <v>1.050630347314755</v>
       </c>
       <c r="E17">
-        <v>0.8730832019792488</v>
+        <v>1.027340719022908</v>
       </c>
       <c r="F17">
-        <v>0.9751954887157811</v>
+        <v>1.054787926057839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036574809845253</v>
+        <v>1.039709304835415</v>
       </c>
       <c r="J17">
-        <v>0.8828454921787019</v>
+        <v>1.033845564643092</v>
       </c>
       <c r="K17">
-        <v>1.017904045532091</v>
+        <v>1.053945981125957</v>
       </c>
       <c r="L17">
-        <v>0.8897542710589098</v>
+        <v>1.030737017491203</v>
       </c>
       <c r="M17">
-        <v>0.9896528728380414</v>
+        <v>1.058089571599384</v>
       </c>
       <c r="N17">
-        <v>0.8840992340413889</v>
+        <v>1.035313743928628</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.854125928913064</v>
+        <v>1.028264400820402</v>
       </c>
       <c r="D18">
-        <v>1.005952539977218</v>
+        <v>1.050871264752575</v>
       </c>
       <c r="E18">
-        <v>0.8783379013893182</v>
+        <v>1.02791682894172</v>
       </c>
       <c r="F18">
-        <v>0.9781851126068994</v>
+        <v>1.055142608800217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037392608407437</v>
+        <v>1.039781800327325</v>
       </c>
       <c r="J18">
-        <v>0.8881111321694043</v>
+        <v>1.034418772803411</v>
       </c>
       <c r="K18">
-        <v>1.019669309830744</v>
+        <v>1.054144852461236</v>
       </c>
       <c r="L18">
-        <v>0.8946486945377462</v>
+        <v>1.031268801588888</v>
       </c>
       <c r="M18">
-        <v>0.9923913325010731</v>
+        <v>1.058402023777175</v>
       </c>
       <c r="N18">
-        <v>0.8893723518448555</v>
+        <v>1.035887766110284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8561749923597044</v>
+        <v>1.028488280159614</v>
       </c>
       <c r="D19">
-        <v>1.006617557953315</v>
+        <v>1.050953316684825</v>
       </c>
       <c r="E19">
-        <v>0.8800872239426983</v>
+        <v>1.028113033831396</v>
       </c>
       <c r="F19">
-        <v>0.9791838958847773</v>
+        <v>1.055263405247028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037665579006343</v>
+        <v>1.039806452723931</v>
       </c>
       <c r="J19">
-        <v>0.8898634716527219</v>
+        <v>1.0346139754504</v>
       </c>
       <c r="K19">
-        <v>1.02025909720794</v>
+        <v>1.054212556089927</v>
       </c>
       <c r="L19">
-        <v>0.8962776565716863</v>
+        <v>1.031449889184376</v>
       </c>
       <c r="M19">
-        <v>0.9933053517103473</v>
+        <v>1.058508411549404</v>
       </c>
       <c r="N19">
-        <v>0.8911271798512356</v>
+        <v>1.036083245967421</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8468078953390279</v>
+        <v>1.02748602443538</v>
       </c>
       <c r="D20">
-        <v>1.003593345966445</v>
+        <v>1.050585987270004</v>
       </c>
       <c r="E20">
-        <v>0.872095453216935</v>
+        <v>1.027234636444034</v>
       </c>
       <c r="F20">
-        <v>0.9746353038541314</v>
+        <v>1.054722617549969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036421458931282</v>
+        <v>1.039695938115547</v>
       </c>
       <c r="J20">
-        <v>0.8818553712168823</v>
+        <v>1.03374000972676</v>
       </c>
       <c r="K20">
-        <v>1.01757330363299</v>
+        <v>1.053909349610825</v>
       </c>
       <c r="L20">
-        <v>0.8888340354042579</v>
+        <v>1.030639086759044</v>
       </c>
       <c r="M20">
-        <v>0.9891393221865323</v>
+        <v>1.058032026756989</v>
       </c>
       <c r="N20">
-        <v>0.8831077069942349</v>
+        <v>1.035208039112208</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8118074270569297</v>
+        <v>1.024209389505149</v>
       </c>
       <c r="D21">
-        <v>0.9926652212150475</v>
+        <v>1.049385110038344</v>
       </c>
       <c r="E21">
-        <v>0.8423597954265943</v>
+        <v>1.0243623409334</v>
       </c>
       <c r="F21">
-        <v>0.9580472995592317</v>
+        <v>1.052954518211768</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031867690241077</v>
+        <v>1.039331983765251</v>
       </c>
       <c r="J21">
-        <v>0.8520004871800105</v>
+        <v>1.030881227580175</v>
       </c>
       <c r="K21">
-        <v>1.007786898507115</v>
+        <v>1.052916136115265</v>
       </c>
       <c r="L21">
-        <v>0.8611015256001908</v>
+        <v>1.027986335124256</v>
       </c>
       <c r="M21">
-        <v>0.9738695892855962</v>
+        <v>1.056472680409018</v>
       </c>
       <c r="N21">
-        <v>0.8532104255976279</v>
+        <v>1.032345197167069</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7843420616828034</v>
+        <v>1.022134800981735</v>
       </c>
       <c r="D22">
-        <v>0.9845231208913504</v>
+        <v>1.048624859237018</v>
       </c>
       <c r="E22">
-        <v>0.8191859508229947</v>
+        <v>1.022543319336172</v>
       </c>
       <c r="F22">
-        <v>0.9455123380753706</v>
+        <v>1.051835025307164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028416393303323</v>
+        <v>1.039099531397159</v>
       </c>
       <c r="J22">
-        <v>0.8286662163347834</v>
+        <v>1.029070009308005</v>
       </c>
       <c r="K22">
-        <v>1.00040754160947</v>
+        <v>1.052285836813247</v>
       </c>
       <c r="L22">
-        <v>0.8394521429653734</v>
+        <v>1.026305206184227</v>
       </c>
       <c r="M22">
-        <v>0.9622464117348294</v>
+        <v>1.055483965919672</v>
       </c>
       <c r="N22">
-        <v>0.8298430174113224</v>
+        <v>1.030531406757201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7996151772896323</v>
+        <v>1.023235979914197</v>
       </c>
       <c r="D23">
-        <v>0.989002283279152</v>
+        <v>1.04902838388331</v>
       </c>
       <c r="E23">
-        <v>0.8320536402796274</v>
+        <v>1.02350888572479</v>
       </c>
       <c r="F23">
-        <v>0.9524283920249172</v>
+        <v>1.052429243570317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030321232685996</v>
+        <v>1.039223105021404</v>
       </c>
       <c r="J23">
-        <v>0.8416306269078588</v>
+        <v>1.030031505193941</v>
       </c>
       <c r="K23">
-        <v>1.004476855823825</v>
+        <v>1.052620529804457</v>
       </c>
       <c r="L23">
-        <v>0.851477142263905</v>
+        <v>1.027197685295515</v>
       </c>
       <c r="M23">
-        <v>0.9686687748015198</v>
+        <v>1.0560089003842</v>
       </c>
       <c r="N23">
-        <v>0.8428258389344502</v>
+        <v>1.031494268077582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.847332424444781</v>
+        <v>1.027540719897988</v>
       </c>
       <c r="D24">
-        <v>1.003761613624585</v>
+        <v>1.050606033400535</v>
       </c>
       <c r="E24">
-        <v>0.872542618920663</v>
+        <v>1.027282574892046</v>
       </c>
       <c r="F24">
-        <v>0.9748888356851877</v>
+        <v>1.054752130244517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036490867726593</v>
+        <v>1.039701979180416</v>
       </c>
       <c r="J24">
-        <v>0.8823036232498858</v>
+        <v>1.033787709980979</v>
       </c>
       <c r="K24">
-        <v>1.017722991572208</v>
+        <v>1.053925903763723</v>
       </c>
       <c r="L24">
-        <v>0.8892506452454437</v>
+        <v>1.030683341797199</v>
       </c>
       <c r="M24">
-        <v>0.9893717648094527</v>
+        <v>1.058058031551068</v>
       </c>
       <c r="N24">
-        <v>0.8835565955965408</v>
+        <v>1.03525580710626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.889294632228216</v>
+        <v>1.032476380426144</v>
       </c>
       <c r="D25">
-        <v>1.017625414214934</v>
+        <v>1.052414832012875</v>
       </c>
       <c r="E25">
-        <v>0.9084410433039459</v>
+        <v>1.03160739417433</v>
       </c>
       <c r="F25">
-        <v>0.9956071365552096</v>
+        <v>1.057414920177241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042132458484576</v>
+        <v>1.040242228989817</v>
       </c>
       <c r="J25">
-        <v>0.9182228977818744</v>
+        <v>1.038089269934865</v>
       </c>
       <c r="K25">
-        <v>1.029956143816165</v>
+        <v>1.055416045038124</v>
       </c>
       <c r="L25">
-        <v>0.9226490594824216</v>
+        <v>1.034673158184794</v>
       </c>
       <c r="M25">
-        <v>1.008274030996619</v>
+        <v>1.060401034170698</v>
       </c>
       <c r="N25">
-        <v>0.9195268796183632</v>
+        <v>1.039563475768676</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036368143126336</v>
+        <v>0.9169924310712676</v>
       </c>
       <c r="D2">
-        <v>1.053840555119002</v>
+        <v>1.027181650187542</v>
       </c>
       <c r="E2">
-        <v>1.035015862455223</v>
+        <v>0.9322520254334803</v>
       </c>
       <c r="F2">
-        <v>1.059513628349498</v>
+        <v>1.009715880650849</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040660984946148</v>
+        <v>1.045925999510346</v>
       </c>
       <c r="J2">
-        <v>1.041476841805171</v>
+        <v>0.941974896389877</v>
       </c>
       <c r="K2">
-        <v>1.056585413056771</v>
+        <v>1.038274857116211</v>
       </c>
       <c r="L2">
-        <v>1.037813678117573</v>
+        <v>0.9447434845136327</v>
       </c>
       <c r="M2">
-        <v>1.062242926509055</v>
+        <v>1.021041497191645</v>
       </c>
       <c r="N2">
-        <v>1.042955858379597</v>
+        <v>0.9433126087887813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039169436755782</v>
+        <v>0.9348996826086271</v>
       </c>
       <c r="D3">
-        <v>1.054866274878997</v>
+        <v>1.033513720763354</v>
       </c>
       <c r="E3">
-        <v>1.037468291508507</v>
+        <v>0.9476851974108054</v>
       </c>
       <c r="F3">
-        <v>1.061023536434782</v>
+        <v>1.01899923290638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040958147004656</v>
+        <v>1.048391538809645</v>
       </c>
       <c r="J3">
-        <v>1.043912761824634</v>
+        <v>0.9573373646597862</v>
       </c>
       <c r="K3">
-        <v>1.057423713373109</v>
+        <v>1.043735019118854</v>
       </c>
       <c r="L3">
-        <v>1.040071049511232</v>
+        <v>0.9590343101406699</v>
       </c>
       <c r="M3">
-        <v>1.063565319930882</v>
+        <v>1.029394652123636</v>
       </c>
       <c r="N3">
-        <v>1.045395237684893</v>
+        <v>0.9586968935257334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04097124072823</v>
+        <v>0.9456943186422558</v>
       </c>
       <c r="D4">
-        <v>1.055525711607635</v>
+        <v>1.037384128449137</v>
       </c>
       <c r="E4">
-        <v>1.039045235623069</v>
+        <v>0.9570007338883878</v>
       </c>
       <c r="F4">
-        <v>1.061994299336337</v>
+        <v>1.024650857832187</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041147290137623</v>
+        <v>1.049877728153529</v>
       </c>
       <c r="J4">
-        <v>1.045478412541795</v>
+        <v>0.9665971324786735</v>
       </c>
       <c r="K4">
-        <v>1.057961280360791</v>
+        <v>1.047051362623424</v>
       </c>
       <c r="L4">
-        <v>1.041521523547177</v>
+        <v>0.9676474054970378</v>
       </c>
       <c r="M4">
-        <v>1.06441425697275</v>
+        <v>1.034460600687821</v>
       </c>
       <c r="N4">
-        <v>1.046963111805654</v>
+        <v>0.9679698112770339</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041726200812968</v>
+        <v>0.9500678380816788</v>
       </c>
       <c r="D5">
-        <v>1.055801932227526</v>
+        <v>1.038962999081191</v>
       </c>
       <c r="E5">
-        <v>1.039705865005467</v>
+        <v>0.9607773091626496</v>
       </c>
       <c r="F5">
-        <v>1.062400940888096</v>
+        <v>1.026951760474035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041226060926908</v>
+        <v>1.050479139027895</v>
       </c>
       <c r="J5">
-        <v>1.046134148983072</v>
+        <v>0.9703481641752061</v>
       </c>
       <c r="K5">
-        <v>1.058186123643426</v>
+        <v>1.048399464520782</v>
       </c>
       <c r="L5">
-        <v>1.042128920803723</v>
+        <v>0.971136197908493</v>
       </c>
       <c r="M5">
-        <v>1.064769564121847</v>
+        <v>1.036518702758072</v>
       </c>
       <c r="N5">
-        <v>1.047619779467892</v>
+        <v>0.9717261698688249</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041852816332024</v>
+        <v>0.9507931496048967</v>
       </c>
       <c r="D6">
-        <v>1.055848252326231</v>
+        <v>1.039225421441092</v>
       </c>
       <c r="E6">
-        <v>1.039816653447023</v>
+        <v>0.961403743582369</v>
       </c>
       <c r="F6">
-        <v>1.062469132584908</v>
+        <v>1.02733394318005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041239243400419</v>
+        <v>1.050578816495709</v>
       </c>
       <c r="J6">
-        <v>1.046244107394361</v>
+        <v>0.9709701938714501</v>
       </c>
       <c r="K6">
-        <v>1.058223808846106</v>
+        <v>1.0486232596444</v>
       </c>
       <c r="L6">
-        <v>1.04223076748807</v>
+        <v>0.9717147217639541</v>
       </c>
       <c r="M6">
-        <v>1.064829129545226</v>
+        <v>1.036860306649688</v>
       </c>
       <c r="N6">
-        <v>1.047729894032737</v>
+        <v>0.9723490829185854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040981338341472</v>
+        <v>0.9457533753120029</v>
       </c>
       <c r="D7">
-        <v>1.055529406414446</v>
+        <v>1.037405407929319</v>
       </c>
       <c r="E7">
-        <v>1.039054072010716</v>
+        <v>0.9570517213523544</v>
       </c>
       <c r="F7">
-        <v>1.061999738627277</v>
+        <v>1.02468188582574</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04114834559482</v>
+        <v>1.049885852914657</v>
       </c>
       <c r="J7">
-        <v>1.045487184118843</v>
+        <v>0.9666477865379149</v>
       </c>
       <c r="K7">
-        <v>1.057964289224761</v>
+        <v>1.047069550387514</v>
       </c>
       <c r="L7">
-        <v>1.04152964890058</v>
+        <v>0.9676945194997322</v>
       </c>
       <c r="M7">
-        <v>1.064419010799338</v>
+        <v>1.03448837149028</v>
       </c>
       <c r="N7">
-        <v>1.046971895839347</v>
+        <v>0.9680205372708498</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037317137677723</v>
+        <v>0.9232255712729077</v>
       </c>
       <c r="D8">
-        <v>1.054188096477892</v>
+        <v>1.029372687776027</v>
       </c>
       <c r="E8">
-        <v>1.035846768527656</v>
+        <v>0.9376208736846654</v>
       </c>
       <c r="F8">
-        <v>1.060025220157762</v>
+        <v>1.012933611716961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040762066723179</v>
+        <v>1.046783715711449</v>
       </c>
       <c r="J8">
-        <v>1.042302295723492</v>
+        <v>0.9473221347733112</v>
       </c>
       <c r="K8">
-        <v>1.056869738460644</v>
+        <v>1.040168959977771</v>
       </c>
       <c r="L8">
-        <v>1.038578714388291</v>
+        <v>0.9497178000254634</v>
       </c>
       <c r="M8">
-        <v>1.062691247873938</v>
+        <v>1.023941193295427</v>
       </c>
       <c r="N8">
-        <v>1.043782484537163</v>
+        <v>0.9486674408640572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030774184558118</v>
+        <v>0.8758645665029098</v>
       </c>
       <c r="D9">
-        <v>1.051791068963442</v>
+        <v>1.01310416751951</v>
       </c>
       <c r="E9">
-        <v>1.030116115054306</v>
+        <v>0.8969264485261206</v>
       </c>
       <c r="F9">
-        <v>1.056496694810925</v>
+        <v>0.9888856078707317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040057025486971</v>
+        <v>1.040309766778601</v>
       </c>
       <c r="J9">
-        <v>1.036606412258363</v>
+        <v>0.9067158562309272</v>
       </c>
       <c r="K9">
-        <v>1.054902980331625</v>
+        <v>1.02598815718805</v>
       </c>
       <c r="L9">
-        <v>1.033298007049391</v>
+        <v>0.9119469775966891</v>
       </c>
       <c r="M9">
-        <v>1.059593828144082</v>
+        <v>1.002161619488669</v>
       </c>
       <c r="N9">
-        <v>1.038078512264188</v>
+        <v>0.9080034967485374</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026349603748548</v>
+        <v>0.8355207839947558</v>
       </c>
       <c r="D10">
-        <v>1.050169484285686</v>
+        <v>1.00000402953882</v>
       </c>
       <c r="E10">
-        <v>1.026238550741007</v>
+        <v>0.8624835668589502</v>
       </c>
       <c r="F10">
-        <v>1.054109411706165</v>
+        <v>0.9692141802522927</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039570163344461</v>
+        <v>1.034935742057601</v>
       </c>
       <c r="J10">
-        <v>1.032748778464308</v>
+        <v>0.8722151439240704</v>
       </c>
       <c r="K10">
-        <v>1.053565209297826</v>
+        <v>1.014373211231473</v>
       </c>
       <c r="L10">
-        <v>1.02971939224454</v>
+        <v>0.8798757570288545</v>
       </c>
       <c r="M10">
-        <v>1.057491531223697</v>
+        <v>0.9841624557550904</v>
       </c>
       <c r="N10">
-        <v>1.034215400187669</v>
+        <v>0.8734537894729181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024417796027874</v>
+        <v>0.8142871846630211</v>
       </c>
       <c r="D11">
-        <v>1.049461487154069</v>
+        <v>0.9934195228875681</v>
       </c>
       <c r="E11">
-        <v>1.024545055710583</v>
+        <v>0.8444594471780258</v>
       </c>
       <c r="F11">
-        <v>1.05306697912015</v>
+        <v>0.9592004955991148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039355250500342</v>
+        <v>1.032184897974666</v>
       </c>
       <c r="J11">
-        <v>1.031063126596132</v>
+        <v>0.8541116647306445</v>
       </c>
       <c r="K11">
-        <v>1.052979393765907</v>
+        <v>1.008466613582021</v>
       </c>
       <c r="L11">
-        <v>1.028155150669328</v>
+        <v>0.8630615188451681</v>
       </c>
       <c r="M11">
-        <v>1.056571944655592</v>
+        <v>0.9749351490510214</v>
       </c>
       <c r="N11">
-        <v>1.032527354500492</v>
+        <v>0.8553246012625393</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023697749423475</v>
+        <v>0.8055316015650359</v>
       </c>
       <c r="D12">
-        <v>1.049197606626415</v>
+        <v>0.9907702140758744</v>
       </c>
       <c r="E12">
-        <v>1.023913759969086</v>
+        <v>0.8370511817673759</v>
       </c>
       <c r="F12">
-        <v>1.052678425194593</v>
+        <v>0.9551443587888924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039274797461853</v>
+        <v>1.031068895703263</v>
       </c>
       <c r="J12">
-        <v>1.030434624494366</v>
+        <v>0.8466605523301304</v>
       </c>
       <c r="K12">
-        <v>1.052760790588172</v>
+        <v>1.006076404560294</v>
       </c>
       <c r="L12">
-        <v>1.027571840296985</v>
+        <v>0.8561448576401106</v>
       </c>
       <c r="M12">
-        <v>1.056228939346492</v>
+        <v>0.9711845130402014</v>
       </c>
       <c r="N12">
-        <v>1.031897959853652</v>
+        <v>0.8478629074277618</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023852315939266</v>
+        <v>0.807456957649203</v>
       </c>
       <c r="D13">
-        <v>1.049254250922083</v>
+        <v>0.9913494386214445</v>
       </c>
       <c r="E13">
-        <v>1.024049278462287</v>
+        <v>0.8386789997832482</v>
       </c>
       <c r="F13">
-        <v>1.05276183294591</v>
+        <v>0.95603255887581</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039292083336239</v>
+        <v>1.031313340014056</v>
       </c>
       <c r="J13">
-        <v>1.030569549180882</v>
+        <v>0.8482983089834553</v>
       </c>
       <c r="K13">
-        <v>1.052807727541151</v>
+        <v>1.006599669658416</v>
       </c>
       <c r="L13">
-        <v>1.027697066837338</v>
+        <v>0.8576649312559148</v>
       </c>
       <c r="M13">
-        <v>1.056302580445017</v>
+        <v>0.9720064734688152</v>
       </c>
       <c r="N13">
-        <v>1.032033076148698</v>
+        <v>0.8495029898833878</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024358328037092</v>
+        <v>0.8135838894652663</v>
       </c>
       <c r="D14">
-        <v>1.049439693170197</v>
+        <v>0.9932052755000768</v>
       </c>
       <c r="E14">
-        <v>1.024492919107017</v>
+        <v>0.8438638383689865</v>
       </c>
       <c r="F14">
-        <v>1.05303488885176</v>
+        <v>0.9588730804191603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039348613027272</v>
+        <v>1.032094843564748</v>
       </c>
       <c r="J14">
-        <v>1.031011223365237</v>
+        <v>0.8535128356705746</v>
       </c>
       <c r="K14">
-        <v>1.052961344587767</v>
+        <v>1.008273616891946</v>
       </c>
       <c r="L14">
-        <v>1.028106981040408</v>
+        <v>0.8625055535598632</v>
       </c>
       <c r="M14">
-        <v>1.056543621111257</v>
+        <v>0.9746326780570044</v>
       </c>
       <c r="N14">
-        <v>1.032475377561056</v>
+        <v>0.8547249217965173</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02466976638444</v>
+        <v>0.8172303255307528</v>
       </c>
       <c r="D15">
-        <v>1.049553830499458</v>
+        <v>0.9943188111925835</v>
       </c>
       <c r="E15">
-        <v>1.024765959335432</v>
+        <v>0.8469529392817992</v>
       </c>
       <c r="F15">
-        <v>1.053202947839709</v>
+        <v>0.9605736683140697</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039383359761478</v>
+        <v>1.032562519434604</v>
       </c>
       <c r="J15">
-        <v>1.031283036092519</v>
+        <v>0.8566182167064207</v>
       </c>
       <c r="K15">
-        <v>1.053055859286793</v>
+        <v>1.009276139213044</v>
       </c>
       <c r="L15">
-        <v>1.028359238087067</v>
+        <v>0.8653888153961542</v>
       </c>
       <c r="M15">
-        <v>1.056691943651057</v>
+        <v>0.9762031689656178</v>
       </c>
       <c r="N15">
-        <v>1.032747576293588</v>
+        <v>0.8578347128296265</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026477467836904</v>
+        <v>0.8368299693663813</v>
       </c>
       <c r="D16">
-        <v>1.050216346859611</v>
+        <v>1.000417233141438</v>
       </c>
       <c r="E16">
-        <v>1.026350630466422</v>
+        <v>0.8635973953490483</v>
       </c>
       <c r="F16">
-        <v>1.054178407558362</v>
+        <v>0.9698395553507897</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039584339283102</v>
+        <v>1.03510727805383</v>
       </c>
       <c r="J16">
-        <v>1.032860320964347</v>
+        <v>0.8733327476537391</v>
       </c>
       <c r="K16">
-        <v>1.053603948137482</v>
+        <v>1.014742302792148</v>
       </c>
       <c r="L16">
-        <v>1.029822890100818</v>
+        <v>0.8809141533516411</v>
       </c>
       <c r="M16">
-        <v>1.057552362626884</v>
+        <v>0.9847372367707056</v>
       </c>
       <c r="N16">
-        <v>1.034327101090851</v>
+        <v>0.8745729803280737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027607059944457</v>
+        <v>0.847966466889129</v>
       </c>
       <c r="D17">
-        <v>1.050630347314755</v>
+        <v>1.003965185002363</v>
       </c>
       <c r="E17">
-        <v>1.027340719022908</v>
+        <v>0.8730832019792522</v>
       </c>
       <c r="F17">
-        <v>1.054787926057839</v>
+        <v>0.975195488715782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039709304835415</v>
+        <v>1.036574809845253</v>
       </c>
       <c r="J17">
-        <v>1.033845564643092</v>
+        <v>0.8828454921787049</v>
       </c>
       <c r="K17">
-        <v>1.053945981125957</v>
+        <v>1.017904045532091</v>
       </c>
       <c r="L17">
-        <v>1.030737017491203</v>
+        <v>0.889754271058913</v>
       </c>
       <c r="M17">
-        <v>1.058089571599384</v>
+        <v>0.9896528728380423</v>
       </c>
       <c r="N17">
-        <v>1.035313743928628</v>
+        <v>0.8840992340413921</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028264400820402</v>
+        <v>0.8541259289130657</v>
       </c>
       <c r="D18">
-        <v>1.050871264752575</v>
+        <v>1.005952539977219</v>
       </c>
       <c r="E18">
-        <v>1.02791682894172</v>
+        <v>0.8783379013893197</v>
       </c>
       <c r="F18">
-        <v>1.055142608800217</v>
+        <v>0.9781851126069004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039781800327325</v>
+        <v>1.037392608407437</v>
       </c>
       <c r="J18">
-        <v>1.034418772803411</v>
+        <v>0.8881111321694058</v>
       </c>
       <c r="K18">
-        <v>1.054144852461236</v>
+        <v>1.019669309830745</v>
       </c>
       <c r="L18">
-        <v>1.031268801588888</v>
+        <v>0.8946486945377476</v>
       </c>
       <c r="M18">
-        <v>1.058402023777175</v>
+        <v>0.9923913325010739</v>
       </c>
       <c r="N18">
-        <v>1.035887766110284</v>
+        <v>0.8893723518448572</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028488280159614</v>
+        <v>0.8561749923597071</v>
       </c>
       <c r="D19">
-        <v>1.050953316684825</v>
+        <v>1.006617557953316</v>
       </c>
       <c r="E19">
-        <v>1.028113033831396</v>
+        <v>0.8800872239427003</v>
       </c>
       <c r="F19">
-        <v>1.055263405247028</v>
+        <v>0.9791838958847787</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039806452723931</v>
+        <v>1.037665579006344</v>
       </c>
       <c r="J19">
-        <v>1.0346139754504</v>
+        <v>0.8898634716527243</v>
       </c>
       <c r="K19">
-        <v>1.054212556089927</v>
+        <v>1.020259097207941</v>
       </c>
       <c r="L19">
-        <v>1.031449889184376</v>
+        <v>0.8962776565716886</v>
       </c>
       <c r="M19">
-        <v>1.058508411549404</v>
+        <v>0.9933053517103485</v>
       </c>
       <c r="N19">
-        <v>1.036083245967421</v>
+        <v>0.8911271798512378</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02748602443538</v>
+        <v>0.8468078953390299</v>
       </c>
       <c r="D20">
-        <v>1.050585987270004</v>
+        <v>1.003593345966446</v>
       </c>
       <c r="E20">
-        <v>1.027234636444034</v>
+        <v>0.8720954532169368</v>
       </c>
       <c r="F20">
-        <v>1.054722617549969</v>
+        <v>0.9746353038541321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039695938115547</v>
+        <v>1.036421458931282</v>
       </c>
       <c r="J20">
-        <v>1.03374000972676</v>
+        <v>0.8818553712168841</v>
       </c>
       <c r="K20">
-        <v>1.053909349610825</v>
+        <v>1.017573303632991</v>
       </c>
       <c r="L20">
-        <v>1.030639086759044</v>
+        <v>0.8888340354042596</v>
       </c>
       <c r="M20">
-        <v>1.058032026756989</v>
+        <v>0.9891393221865332</v>
       </c>
       <c r="N20">
-        <v>1.035208039112208</v>
+        <v>0.8831077069942369</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024209389505149</v>
+        <v>0.8118074270569307</v>
       </c>
       <c r="D21">
-        <v>1.049385110038344</v>
+        <v>0.9926652212150474</v>
       </c>
       <c r="E21">
-        <v>1.0243623409334</v>
+        <v>0.8423597954265948</v>
       </c>
       <c r="F21">
-        <v>1.052954518211768</v>
+        <v>0.9580472995592317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039331983765251</v>
+        <v>1.031867690241077</v>
       </c>
       <c r="J21">
-        <v>1.030881227580175</v>
+        <v>0.8520004871800112</v>
       </c>
       <c r="K21">
-        <v>1.052916136115265</v>
+        <v>1.007786898507115</v>
       </c>
       <c r="L21">
-        <v>1.027986335124256</v>
+        <v>0.8611015256001913</v>
       </c>
       <c r="M21">
-        <v>1.056472680409018</v>
+        <v>0.9738695892855962</v>
       </c>
       <c r="N21">
-        <v>1.032345197167069</v>
+        <v>0.8532104255976286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022134800981735</v>
+        <v>0.7843420616828051</v>
       </c>
       <c r="D22">
-        <v>1.048624859237018</v>
+        <v>0.9845231208913509</v>
       </c>
       <c r="E22">
-        <v>1.022543319336172</v>
+        <v>0.8191859508229965</v>
       </c>
       <c r="F22">
-        <v>1.051835025307164</v>
+        <v>0.9455123380753712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039099531397159</v>
+        <v>1.028416393303323</v>
       </c>
       <c r="J22">
-        <v>1.029070009308005</v>
+        <v>0.828666216334785</v>
       </c>
       <c r="K22">
-        <v>1.052285836813247</v>
+        <v>1.00040754160947</v>
       </c>
       <c r="L22">
-        <v>1.026305206184227</v>
+        <v>0.8394521429653748</v>
       </c>
       <c r="M22">
-        <v>1.055483965919672</v>
+        <v>0.9622464117348301</v>
       </c>
       <c r="N22">
-        <v>1.030531406757201</v>
+        <v>0.8298430174113238</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023235979914197</v>
+        <v>0.7996151772896325</v>
       </c>
       <c r="D23">
-        <v>1.04902838388331</v>
+        <v>0.989002283279152</v>
       </c>
       <c r="E23">
-        <v>1.02350888572479</v>
+        <v>0.8320536402796275</v>
       </c>
       <c r="F23">
-        <v>1.052429243570317</v>
+        <v>0.9524283920249172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039223105021404</v>
+        <v>1.030321232685996</v>
       </c>
       <c r="J23">
-        <v>1.030031505193941</v>
+        <v>0.8416306269078591</v>
       </c>
       <c r="K23">
-        <v>1.052620529804457</v>
+        <v>1.004476855823825</v>
       </c>
       <c r="L23">
-        <v>1.027197685295515</v>
+        <v>0.8514771422639051</v>
       </c>
       <c r="M23">
-        <v>1.0560089003842</v>
+        <v>0.9686687748015197</v>
       </c>
       <c r="N23">
-        <v>1.031494268077582</v>
+        <v>0.8428258389344503</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027540719897988</v>
+        <v>0.8473324244447791</v>
       </c>
       <c r="D24">
-        <v>1.050606033400535</v>
+        <v>1.003761613624584</v>
       </c>
       <c r="E24">
-        <v>1.027282574892046</v>
+        <v>0.8725426189206614</v>
       </c>
       <c r="F24">
-        <v>1.054752130244517</v>
+        <v>0.9748888356851867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039701979180416</v>
+        <v>1.036490867726592</v>
       </c>
       <c r="J24">
-        <v>1.033787709980979</v>
+        <v>0.8823036232498841</v>
       </c>
       <c r="K24">
-        <v>1.053925903763723</v>
+        <v>1.017722991572207</v>
       </c>
       <c r="L24">
-        <v>1.030683341797199</v>
+        <v>0.8892506452454422</v>
       </c>
       <c r="M24">
-        <v>1.058058031551068</v>
+        <v>0.9893717648094517</v>
       </c>
       <c r="N24">
-        <v>1.03525580710626</v>
+        <v>0.8835565955965387</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032476380426144</v>
+        <v>0.8892946322282183</v>
       </c>
       <c r="D25">
-        <v>1.052414832012875</v>
+        <v>1.017625414214935</v>
       </c>
       <c r="E25">
-        <v>1.03160739417433</v>
+        <v>0.9084410433039481</v>
       </c>
       <c r="F25">
-        <v>1.057414920177241</v>
+        <v>0.9956071365552103</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040242228989817</v>
+        <v>1.042132458484576</v>
       </c>
       <c r="J25">
-        <v>1.038089269934865</v>
+        <v>0.9182228977818767</v>
       </c>
       <c r="K25">
-        <v>1.055416045038124</v>
+        <v>1.029956143816166</v>
       </c>
       <c r="L25">
-        <v>1.034673158184794</v>
+        <v>0.9226490594824239</v>
       </c>
       <c r="M25">
-        <v>1.060401034170698</v>
+        <v>1.008274030996619</v>
       </c>
       <c r="N25">
-        <v>1.039563475768676</v>
+        <v>0.9195268796183653</v>
       </c>
     </row>
   </sheetData>
